--- a/build/lib/biosteam/biorefineries/cornstover/_humbird2011.xlsx
+++ b/build/lib/biosteam/biorefineries/cornstover/_humbird2011.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoelr\OneDrive\Code\cornstover\cornstover\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoelr\OneDrive\Code\biosteam\biosteam\biorefineries\cornstover\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B835EC96-4757-407F-879E-2A46AD6388AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{A982A773-E677-47C6-A855-080D22BAD16C}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{B835EC96-4757-407F-879E-2A46AD6388AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{802D7A91-D58F-4049-A7A5-29F2BF44651F}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{3188A448-B3F0-4EEE-A6DF-294BE8E476D0}"/>
+    <workbookView xWindow="1002" yWindow="1498" windowWidth="11635" windowHeight="10137" xr2:uid="{3188A448-B3F0-4EEE-A6DF-294BE8E476D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="50">
   <si>
     <t>CEPCI</t>
   </si>
@@ -86,39 +86,21 @@
     <t>Pump</t>
   </si>
   <si>
-    <t>Oligomer conversion tank 208</t>
-  </si>
-  <si>
-    <t>Sulfuric acid tank 201</t>
-  </si>
-  <si>
     <t>Dry flow rate</t>
   </si>
   <si>
-    <t>Ammonia addition tank 209</t>
-  </si>
-  <si>
-    <t>Blowdown discharge pump 203</t>
-  </si>
-  <si>
     <t>hp2kW</t>
   </si>
   <si>
     <t>Mixer-Sulfuric acid mixer</t>
   </si>
   <si>
-    <t>Mixer-Ammonia mixer 210</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
     <t>Upper bound</t>
   </si>
   <si>
-    <t>Ammonia reacidification tank 224</t>
-  </si>
-  <si>
     <t>Heat Exchanger</t>
   </si>
   <si>
@@ -128,48 +110,18 @@
     <t>Gcal/hr</t>
   </si>
   <si>
-    <t>Hydrolyzate Pump 209</t>
-  </si>
-  <si>
-    <t>Reacidified Hydrolyzate Pump 239</t>
-  </si>
-  <si>
     <t>Separator</t>
   </si>
   <si>
     <t>Note Ethanol Fermentor disregarded</t>
   </si>
   <si>
-    <t>Seed Hold Tank 301</t>
-  </si>
-  <si>
-    <t>Hydrolyzate Solid Liquid Separator 205</t>
-  </si>
-  <si>
     <t>Feed stock handling</t>
   </si>
   <si>
-    <t>Flash-Flash 204</t>
-  </si>
-  <si>
-    <t>HXutility-Waste Vapor Condenser 244</t>
-  </si>
-  <si>
-    <t>HXutility-Pretreatment waste heater 201</t>
-  </si>
-  <si>
     <t>Heat exchanger</t>
   </si>
   <si>
-    <t>HXutility-Hydrolysate Cooler 301</t>
-  </si>
-  <si>
-    <t>Mixer-Enzyme Hydrolysate Mixer 308</t>
-  </si>
-  <si>
-    <t>Beer Tank 306</t>
-  </si>
-  <si>
     <t>CSL Tank</t>
   </si>
   <si>
@@ -180,6 +132,57 @@
   </si>
   <si>
     <t>Fire Water Tank</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Sulfuric acid tank</t>
+  </si>
+  <si>
+    <t>Blowdown discharge pump</t>
+  </si>
+  <si>
+    <t>Oligomer conversion tank</t>
+  </si>
+  <si>
+    <t>Ammonia reacidification tank</t>
+  </si>
+  <si>
+    <t>HXutility-Pretreatment waste heater</t>
+  </si>
+  <si>
+    <t>Hydrolyzate Pump</t>
+  </si>
+  <si>
+    <t>Reacidified Hydrolyzate Pump</t>
+  </si>
+  <si>
+    <t>Hydrolyzate Solid Liquid Separator</t>
+  </si>
+  <si>
+    <t>Seed Hold Tank</t>
+  </si>
+  <si>
+    <t>HXutility-Hydrolysate Cooler</t>
+  </si>
+  <si>
+    <t>Mixer-Enzyme Hydrolysate Mixer</t>
+  </si>
+  <si>
+    <t>Beer Tank</t>
+  </si>
+  <si>
+    <t>Flash-Pretreatment flash</t>
+  </si>
+  <si>
+    <t>HXutility-Waste Vapor Condenser</t>
+  </si>
+  <si>
+    <t>Mixer-Ammonia mixer</t>
+  </si>
+  <si>
+    <t>Ammonia addition tank</t>
   </si>
 </sst>
 </file>
@@ -244,7 +247,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -318,6 +321,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,8 +649,8 @@
   <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T5" sqref="T5"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,92 +686,92 @@
         <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="27"/>
+        <v>27</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="28"/>
       <c r="E1" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="28"/>
+      <c r="P1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="28"/>
+      <c r="S1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AM1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AM1" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN1" s="27"/>
+      <c r="AN1" s="28"/>
       <c r="AO1" s="26"/>
     </row>
     <row r="2" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>12</v>
@@ -819,10 +825,10 @@
         <v>8</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>16</v>
@@ -831,7 +837,7 @@
         <v>16</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>16</v>
@@ -843,7 +849,7 @@
         <v>15</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>14</v>
@@ -876,7 +882,7 @@
         <v>15</v>
       </c>
       <c r="AL2" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="AM2" s="24" t="s">
         <v>8</v>
@@ -902,7 +908,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>6</v>
@@ -941,10 +947,10 @@
         <v>6</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="U3" s="4" t="s">
         <v>6</v>
@@ -965,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB3" s="4" t="s">
         <v>6</v>
@@ -1063,10 +1069,10 @@
         <v>7</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>7</v>
@@ -1087,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AB4" s="4" t="s">
         <v>7</v>
@@ -1254,7 +1260,7 @@
     </row>
     <row r="6" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7" t="b">
         <f>FALSE</f>
@@ -2014,7 +2020,126 @@
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+      <c r="A12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -2081,7 +2206,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1">
         <v>0.74570000000000003</v>
@@ -2089,7 +2214,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
